--- a/examples/sCO2_feasibility/inputs_montecarlo1.xlsx
+++ b/examples/sCO2_feasibility/inputs_montecarlo1.xlsx
@@ -4,15 +4,14 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="1" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" tabRatio="656" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="OCGT" sheetId="9" r:id="rId1"/>
-    <sheet name="OCGT_Batt" sheetId="6" r:id="rId2"/>
-    <sheet name="CCGT" sheetId="10" r:id="rId3"/>
-    <sheet name="CCGT_Batt" sheetId="7" r:id="rId4"/>
-    <sheet name="sCO2" sheetId="11" r:id="rId5"/>
-    <sheet name="sCO2_Batt" sheetId="8" r:id="rId6"/>
+    <sheet name="CCGT" sheetId="10" r:id="rId2"/>
+    <sheet name="sCO2" sheetId="11" r:id="rId3"/>
+    <sheet name="sCO2_CCS" sheetId="12" r:id="rId4"/>
+    <sheet name="CCGT_CCS" sheetId="13" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="40">
   <si>
     <t>maxEfficiency</t>
   </si>
@@ -111,13 +110,46 @@
   </si>
   <si>
     <t>p. 105 of https://www.sandia.gov/ess-ssl/publications/SAND2015-1002.pdf</t>
+  </si>
+  <si>
+    <t>Min below CC, max from Scaccabarozzi et al 2017</t>
+  </si>
+  <si>
+    <t>Same as CC</t>
+  </si>
+  <si>
+    <t>Weiland et al 2018</t>
+  </si>
+  <si>
+    <t>co2CaptureEff</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>cost_install</t>
+  </si>
+  <si>
+    <t>cost_OM_fix</t>
+  </si>
+  <si>
+    <t>cost_OM_var</t>
+  </si>
+  <si>
+    <t>[$/kW]</t>
+  </si>
+  <si>
+    <t>[$/kW/yr]</t>
+  </si>
+  <si>
+    <t>[$/MWh]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -133,19 +165,39 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -160,12 +212,22 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="11" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -446,10 +508,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:XFD10"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -666,6 +728,101 @@
         <v>28</v>
       </c>
     </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9" s="4">
+        <v>750</v>
+      </c>
+      <c r="D9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B10" t="s">
+        <v>38</v>
+      </c>
+      <c r="C10" s="4">
+        <v>17.670000000000002</v>
+      </c>
+      <c r="D10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B11" t="s">
+        <v>39</v>
+      </c>
+      <c r="C11" s="4">
+        <v>3.54</v>
+      </c>
+      <c r="D11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C12" s="5">
+        <v>0</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E12" s="5">
+        <v>0</v>
+      </c>
+      <c r="F12" s="5">
+        <v>0</v>
+      </c>
+      <c r="G12" s="5">
+        <v>0</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -674,10 +831,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:XFD10"/>
+      <selection activeCell="A2" sqref="A2:H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -720,7 +877,7 @@
         <v>17</v>
       </c>
       <c r="C2" s="3">
-        <v>-1.09316424074236E-2</v>
+        <v>-6.9447767379224902E-3</v>
       </c>
       <c r="D2" t="s">
         <v>13</v>
@@ -746,7 +903,7 @@
         <v>17</v>
       </c>
       <c r="C3" s="3">
-        <v>2.0333533243246098</v>
+        <v>1.2823016833006</v>
       </c>
       <c r="D3" t="s">
         <v>13</v>
@@ -772,7 +929,7 @@
         <v>17</v>
       </c>
       <c r="C4" s="3">
-        <v>5.4387482438912196</v>
+        <v>40.843536073400401</v>
       </c>
       <c r="D4" t="s">
         <v>13</v>
@@ -797,17 +954,17 @@
       <c r="B5" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="1">
-        <v>38.33</v>
+      <c r="C5">
+        <v>53.44</v>
       </c>
       <c r="D5" t="s">
         <v>23</v>
       </c>
       <c r="E5">
-        <v>33.5</v>
+        <v>49.9</v>
       </c>
       <c r="F5">
-        <v>43.3</v>
+        <v>58</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -823,17 +980,17 @@
       <c r="B6" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="1">
-        <v>72.77</v>
+      <c r="C6">
+        <v>64.94</v>
       </c>
       <c r="D6" t="s">
         <v>23</v>
       </c>
       <c r="E6">
-        <v>8.2899999999999991</v>
+        <v>29.41</v>
       </c>
       <c r="F6">
-        <v>129.31</v>
+        <v>90.36</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -850,16 +1007,16 @@
         <v>2</v>
       </c>
       <c r="C7">
-        <v>46.11</v>
+        <v>36.43</v>
       </c>
       <c r="D7" t="s">
         <v>23</v>
       </c>
       <c r="E7">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="F7">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -876,7 +1033,7 @@
         <v>27</v>
       </c>
       <c r="C8" s="4">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="D8" t="s">
         <v>13</v>
@@ -892,6 +1049,101 @@
       </c>
       <c r="H8" t="s">
         <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9" s="4">
+        <v>1260</v>
+      </c>
+      <c r="D9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B10" t="s">
+        <v>38</v>
+      </c>
+      <c r="C10" s="4">
+        <v>11.11</v>
+      </c>
+      <c r="D10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B11" t="s">
+        <v>39</v>
+      </c>
+      <c r="C11" s="4">
+        <v>3.54</v>
+      </c>
+      <c r="D11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C12" s="5">
+        <v>0</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E12" s="5">
+        <v>0</v>
+      </c>
+      <c r="F12" s="5">
+        <v>0</v>
+      </c>
+      <c r="G12" s="5">
+        <v>0</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -902,466 +1154,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:XFD10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.5703125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C2" s="3">
-        <v>-6.9447767379224902E-3</v>
-      </c>
-      <c r="D2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3" s="3">
-        <v>1.2823016833006</v>
-      </c>
-      <c r="D3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" s="3">
-        <v>40.843536073400401</v>
-      </c>
-      <c r="D4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5">
-        <v>53.44</v>
-      </c>
-      <c r="D5" t="s">
-        <v>23</v>
-      </c>
-      <c r="E5">
-        <v>49.9</v>
-      </c>
-      <c r="F5">
-        <v>58</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>1</v>
-      </c>
-      <c r="B6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6">
-        <v>64.94</v>
-      </c>
-      <c r="D6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E6">
-        <v>29.41</v>
-      </c>
-      <c r="F6">
-        <v>90.36</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" t="s">
-        <v>2</v>
-      </c>
-      <c r="C7">
-        <v>36.43</v>
-      </c>
-      <c r="D7" t="s">
-        <v>23</v>
-      </c>
-      <c r="E7">
-        <v>19</v>
-      </c>
-      <c r="F7">
-        <v>59</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>26</v>
-      </c>
-      <c r="B8" t="s">
-        <v>27</v>
-      </c>
-      <c r="C8" s="4">
-        <v>0</v>
-      </c>
-      <c r="D8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-      <c r="H8" t="s">
-        <v>28</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:XFD10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.5703125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C2" s="3">
-        <v>-6.9447767379224902E-3</v>
-      </c>
-      <c r="D2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3" s="3">
-        <v>1.2823016833006</v>
-      </c>
-      <c r="D3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" s="3">
-        <v>40.843536073400401</v>
-      </c>
-      <c r="D4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5">
-        <v>53.44</v>
-      </c>
-      <c r="D5" t="s">
-        <v>23</v>
-      </c>
-      <c r="E5">
-        <v>49.9</v>
-      </c>
-      <c r="F5">
-        <v>58</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>1</v>
-      </c>
-      <c r="B6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6">
-        <v>64.94</v>
-      </c>
-      <c r="D6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E6">
-        <v>29.41</v>
-      </c>
-      <c r="F6">
-        <v>90.36</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" t="s">
-        <v>2</v>
-      </c>
-      <c r="C7">
-        <v>36.43</v>
-      </c>
-      <c r="D7" t="s">
-        <v>23</v>
-      </c>
-      <c r="E7">
-        <v>19</v>
-      </c>
-      <c r="F7">
-        <v>59</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>26</v>
-      </c>
-      <c r="B8" t="s">
-        <v>27</v>
-      </c>
-      <c r="C8" s="4">
-        <v>30</v>
-      </c>
-      <c r="D8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-      <c r="H8" t="s">
-        <v>28</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:XFD10"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1579,18 +1375,113 @@
         <v>28</v>
       </c>
     </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9" s="4">
+        <v>962</v>
+      </c>
+      <c r="D9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B10" t="s">
+        <v>38</v>
+      </c>
+      <c r="C10" s="4">
+        <v>0</v>
+      </c>
+      <c r="D10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B11" t="s">
+        <v>39</v>
+      </c>
+      <c r="C11" s="4">
+        <v>8</v>
+      </c>
+      <c r="D11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C12" s="5">
+        <v>0</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E12" s="5">
+        <v>0</v>
+      </c>
+      <c r="F12" s="5">
+        <v>0</v>
+      </c>
+      <c r="G12" s="5">
+        <v>0</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:XFD10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1633,7 +1524,7 @@
       <c r="B2" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2" s="4">
         <v>-5.6022045185988301E-3</v>
       </c>
       <c r="D2" t="s">
@@ -1659,7 +1550,7 @@
       <c r="B3" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="4">
         <v>1.0545827910439201</v>
       </c>
       <c r="D3" t="s">
@@ -1685,7 +1576,7 @@
       <c r="B4" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="4">
         <v>50.041583806307301</v>
       </c>
       <c r="D4" t="s">
@@ -1712,22 +1603,22 @@
         <v>2</v>
       </c>
       <c r="C5" s="1">
-        <v>53.1</v>
+        <v>48.7</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
-      </c>
-      <c r="E5" s="1">
-        <v>43</v>
-      </c>
-      <c r="F5" s="1">
-        <v>59.1</v>
+        <v>13</v>
+      </c>
+      <c r="E5" s="10">
+        <v>0</v>
+      </c>
+      <c r="F5" s="10">
+        <v>0</v>
       </c>
       <c r="G5" s="1">
         <v>0</v>
       </c>
-      <c r="H5" s="1" t="s">
-        <v>20</v>
+      <c r="H5" s="5" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -1747,13 +1638,13 @@
         <v>30</v>
       </c>
       <c r="F6" s="1">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="G6" s="1">
         <v>0</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -1773,13 +1664,13 @@
         <v>15</v>
       </c>
       <c r="F7" s="1">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="G7" s="1">
         <v>0</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -1790,7 +1681,7 @@
         <v>27</v>
       </c>
       <c r="C8" s="4">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="D8" t="s">
         <v>13</v>
@@ -1806,6 +1697,442 @@
       </c>
       <c r="H8" t="s">
         <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9" s="4">
+        <v>1471</v>
+      </c>
+      <c r="D9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B10" t="s">
+        <v>38</v>
+      </c>
+      <c r="C10" s="4">
+        <v>48</v>
+      </c>
+      <c r="D10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B11" t="s">
+        <v>39</v>
+      </c>
+      <c r="C11" s="4">
+        <v>2.7</v>
+      </c>
+      <c r="D11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C12" s="5">
+        <v>98.2</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E12" s="5">
+        <v>0</v>
+      </c>
+      <c r="F12" s="5">
+        <v>0</v>
+      </c>
+      <c r="G12" s="5">
+        <v>0</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="3">
+        <v>-6.9447767379224902E-3</v>
+      </c>
+      <c r="D2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="3">
+        <v>1.2823016833006</v>
+      </c>
+      <c r="D3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="3">
+        <v>40.843536073400401</v>
+      </c>
+      <c r="D4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="8">
+        <v>45.7</v>
+      </c>
+      <c r="D5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="9">
+        <v>0</v>
+      </c>
+      <c r="F5" s="9">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6">
+        <v>64.94</v>
+      </c>
+      <c r="D6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6">
+        <v>29.41</v>
+      </c>
+      <c r="F6">
+        <v>90.36</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7">
+        <v>36.43</v>
+      </c>
+      <c r="D7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7">
+        <v>19</v>
+      </c>
+      <c r="F7">
+        <v>59</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" s="4">
+        <v>0</v>
+      </c>
+      <c r="D8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9" s="4">
+        <v>1481</v>
+      </c>
+      <c r="D9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B10" t="s">
+        <v>38</v>
+      </c>
+      <c r="C10" s="4">
+        <v>48.96</v>
+      </c>
+      <c r="D10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B11" t="s">
+        <v>39</v>
+      </c>
+      <c r="C11" s="4">
+        <v>4</v>
+      </c>
+      <c r="D11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C12" s="5">
+        <v>90.7</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E12" s="5">
+        <v>0</v>
+      </c>
+      <c r="F12" s="5">
+        <v>0</v>
+      </c>
+      <c r="G12" s="5">
+        <v>0</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/examples/sCO2_feasibility/inputs_montecarlo1.xlsx
+++ b/examples/sCO2_feasibility/inputs_montecarlo1.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="37">
   <si>
     <t>maxEfficiency</t>
   </si>
@@ -101,15 +101,6 @@
   </si>
   <si>
     <t>Min below CC, max from Walnum et al</t>
-  </si>
-  <si>
-    <t>battSize</t>
-  </si>
-  <si>
-    <t>[MWh]</t>
-  </si>
-  <si>
-    <t>p. 105 of https://www.sandia.gov/ess-ssl/publications/SAND2015-1002.pdf</t>
   </si>
   <si>
     <t>Min below CC, max from Scaccabarozzi et al 2017</t>
@@ -508,10 +499,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="A8" sqref="A8:XFD8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -703,14 +694,14 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>26</v>
+      <c r="A8" s="7" t="s">
+        <v>31</v>
       </c>
       <c r="B8" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="C8" s="4">
-        <v>0</v>
+        <v>750</v>
       </c>
       <c r="D8" t="s">
         <v>13</v>
@@ -723,20 +714,17 @@
       </c>
       <c r="G8">
         <v>0</v>
-      </c>
-      <c r="H8" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B9" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C9" s="4">
-        <v>750</v>
+        <v>17.670000000000002</v>
       </c>
       <c r="D9" t="s">
         <v>13</v>
@@ -753,13 +741,13 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B10" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C10" s="4">
-        <v>17.670000000000002</v>
+        <v>3.54</v>
       </c>
       <c r="D10" t="s">
         <v>13</v>
@@ -775,52 +763,29 @@
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="B11" t="s">
-        <v>39</v>
-      </c>
-      <c r="C11" s="4">
-        <v>3.54</v>
-      </c>
-      <c r="D11" t="s">
-        <v>13</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <v>0</v>
-      </c>
-      <c r="G11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="B12" s="5" t="s">
+      <c r="A11" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C12" s="5">
-        <v>0</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E12" s="5">
-        <v>0</v>
-      </c>
-      <c r="F12" s="5">
-        <v>0</v>
-      </c>
-      <c r="G12" s="5">
-        <v>0</v>
-      </c>
-      <c r="H12" s="5" t="s">
-        <v>33</v>
+      <c r="C11" s="5">
+        <v>0</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" s="5">
+        <v>0</v>
+      </c>
+      <c r="F11" s="5">
+        <v>0</v>
+      </c>
+      <c r="G11" s="5">
+        <v>0</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -831,10 +796,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:H7"/>
+      <selection activeCell="A8" sqref="A8:XFD8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1026,14 +991,14 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>26</v>
+      <c r="A8" s="7" t="s">
+        <v>31</v>
       </c>
       <c r="B8" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="C8" s="4">
-        <v>0</v>
+        <v>1260</v>
       </c>
       <c r="D8" t="s">
         <v>13</v>
@@ -1046,20 +1011,17 @@
       </c>
       <c r="G8">
         <v>0</v>
-      </c>
-      <c r="H8" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B9" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C9" s="4">
-        <v>1260</v>
+        <v>11.11</v>
       </c>
       <c r="D9" t="s">
         <v>13</v>
@@ -1076,13 +1038,13 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B10" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C10" s="4">
-        <v>11.11</v>
+        <v>3.54</v>
       </c>
       <c r="D10" t="s">
         <v>13</v>
@@ -1098,52 +1060,29 @@
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="B11" t="s">
-        <v>39</v>
-      </c>
-      <c r="C11" s="4">
-        <v>3.54</v>
-      </c>
-      <c r="D11" t="s">
-        <v>13</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <v>0</v>
-      </c>
-      <c r="G11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="B12" s="5" t="s">
+      <c r="A11" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C12" s="5">
-        <v>0</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E12" s="5">
-        <v>0</v>
-      </c>
-      <c r="F12" s="5">
-        <v>0</v>
-      </c>
-      <c r="G12" s="5">
-        <v>0</v>
-      </c>
-      <c r="H12" s="5" t="s">
-        <v>33</v>
+      <c r="C11" s="5">
+        <v>0</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" s="5">
+        <v>0</v>
+      </c>
+      <c r="F11" s="5">
+        <v>0</v>
+      </c>
+      <c r="G11" s="5">
+        <v>0</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -1154,10 +1093,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="A8" sqref="A8:XFD8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1350,14 +1289,14 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>26</v>
+      <c r="A8" s="7" t="s">
+        <v>31</v>
       </c>
       <c r="B8" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="C8" s="4">
-        <v>0</v>
+        <v>962</v>
       </c>
       <c r="D8" t="s">
         <v>13</v>
@@ -1370,20 +1309,17 @@
       </c>
       <c r="G8">
         <v>0</v>
-      </c>
-      <c r="H8" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B9" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C9" s="4">
-        <v>962</v>
+        <v>0</v>
       </c>
       <c r="D9" t="s">
         <v>13</v>
@@ -1400,13 +1336,13 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B10" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C10" s="4">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D10" t="s">
         <v>13</v>
@@ -1422,52 +1358,29 @@
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="B11" t="s">
-        <v>39</v>
-      </c>
-      <c r="C11" s="4">
-        <v>8</v>
-      </c>
-      <c r="D11" t="s">
-        <v>13</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <v>0</v>
-      </c>
-      <c r="G11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="B12" s="5" t="s">
+      <c r="A11" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C12" s="5">
-        <v>0</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E12" s="5">
-        <v>0</v>
-      </c>
-      <c r="F12" s="5">
-        <v>0</v>
-      </c>
-      <c r="G12" s="5">
-        <v>0</v>
-      </c>
-      <c r="H12" s="5" t="s">
-        <v>33</v>
+      <c r="C11" s="5">
+        <v>0</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" s="5">
+        <v>0</v>
+      </c>
+      <c r="F11" s="5">
+        <v>0</v>
+      </c>
+      <c r="G11" s="5">
+        <v>0</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -1478,10 +1391,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="A8" sqref="A8:XFD8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1618,7 +1531,7 @@
         <v>0</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -1644,7 +1557,7 @@
         <v>0</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -1670,18 +1583,18 @@
         <v>0</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>26</v>
+      <c r="A8" s="7" t="s">
+        <v>31</v>
       </c>
       <c r="B8" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="C8" s="4">
-        <v>0</v>
+        <v>1471</v>
       </c>
       <c r="D8" t="s">
         <v>13</v>
@@ -1695,19 +1608,19 @@
       <c r="G8">
         <v>0</v>
       </c>
-      <c r="H8" t="s">
+      <c r="H8" s="5" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B9" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C9" s="4">
-        <v>1471</v>
+        <v>48</v>
       </c>
       <c r="D9" t="s">
         <v>13</v>
@@ -1722,18 +1635,18 @@
         <v>0</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B10" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C10" s="4">
-        <v>48</v>
+        <v>2.7</v>
       </c>
       <c r="D10" t="s">
         <v>13</v>
@@ -1748,59 +1661,33 @@
         <v>0</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="B11" t="s">
-        <v>39</v>
-      </c>
-      <c r="C11" s="4">
-        <v>2.7</v>
-      </c>
-      <c r="D11" t="s">
-        <v>13</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <v>0</v>
-      </c>
-      <c r="G11">
+      <c r="A11" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C11" s="5">
+        <v>98.2</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" s="5">
+        <v>0</v>
+      </c>
+      <c r="F11" s="5">
+        <v>0</v>
+      </c>
+      <c r="G11" s="5">
         <v>0</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C12" s="5">
-        <v>98.2</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E12" s="5">
-        <v>0</v>
-      </c>
-      <c r="F12" s="5">
-        <v>0</v>
-      </c>
-      <c r="G12" s="5">
-        <v>0</v>
-      </c>
-      <c r="H12" s="5" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -1811,10 +1698,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="A8" sqref="A8:XFD8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1950,7 +1837,7 @@
         <v>0</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -2006,14 +1893,14 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>26</v>
+      <c r="A8" s="7" t="s">
+        <v>31</v>
       </c>
       <c r="B8" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="C8" s="4">
-        <v>0</v>
+        <v>1481</v>
       </c>
       <c r="D8" t="s">
         <v>13</v>
@@ -2027,19 +1914,19 @@
       <c r="G8">
         <v>0</v>
       </c>
-      <c r="H8" t="s">
+      <c r="H8" s="5" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B9" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C9" s="4">
-        <v>1481</v>
+        <v>48.96</v>
       </c>
       <c r="D9" t="s">
         <v>13</v>
@@ -2054,18 +1941,18 @@
         <v>0</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B10" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C10" s="4">
-        <v>48.96</v>
+        <v>4</v>
       </c>
       <c r="D10" t="s">
         <v>13</v>
@@ -2080,59 +1967,33 @@
         <v>0</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="B11" t="s">
-        <v>39</v>
-      </c>
-      <c r="C11" s="4">
-        <v>4</v>
-      </c>
-      <c r="D11" t="s">
-        <v>13</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <v>0</v>
-      </c>
-      <c r="G11">
+      <c r="A11" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C11" s="5">
+        <v>90.7</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" s="5">
+        <v>0</v>
+      </c>
+      <c r="F11" s="5">
+        <v>0</v>
+      </c>
+      <c r="G11" s="5">
         <v>0</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C12" s="5">
-        <v>90.7</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E12" s="5">
-        <v>0</v>
-      </c>
-      <c r="F12" s="5">
-        <v>0</v>
-      </c>
-      <c r="G12" s="5">
-        <v>0</v>
-      </c>
-      <c r="H12" s="5" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
